--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H2">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I2">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J2">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>3.20075607514173</v>
+        <v>3.574991495164</v>
       </c>
       <c r="R2">
-        <v>3.20075607514173</v>
+        <v>21.449948970984</v>
       </c>
       <c r="S2">
-        <v>0.000982469563813182</v>
+        <v>0.00089783956166371</v>
       </c>
       <c r="T2">
-        <v>0.000982469563813182</v>
+        <v>0.0006234138664332971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H3">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I3">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J3">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>230.1084572117132</v>
+        <v>247.3483920137666</v>
       </c>
       <c r="R3">
-        <v>230.1084572117132</v>
+        <v>2226.1355281239</v>
       </c>
       <c r="S3">
-        <v>0.0706316102443094</v>
+        <v>0.06212019585620749</v>
       </c>
       <c r="T3">
-        <v>0.0706316102443094</v>
+        <v>0.06469962975993905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H4">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I4">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J4">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>322.3449388135639</v>
+        <v>329.9662399672247</v>
       </c>
       <c r="R4">
-        <v>322.3449388135639</v>
+        <v>2969.696159705022</v>
       </c>
       <c r="S4">
-        <v>0.09894352584163284</v>
+        <v>0.08286921651610951</v>
       </c>
       <c r="T4">
-        <v>0.09894352584163284</v>
+        <v>0.08631021768668073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H5">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I5">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J5">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>244.4784171628075</v>
+        <v>254.2722485163773</v>
       </c>
       <c r="R5">
-        <v>244.4784171628075</v>
+        <v>2288.450236647396</v>
       </c>
       <c r="S5">
-        <v>0.07504245816702695</v>
+        <v>0.06385908454887591</v>
       </c>
       <c r="T5">
-        <v>0.07504245816702695</v>
+        <v>0.06651072280397601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H6">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I6">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J6">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>8.676403559755217</v>
+        <v>11.07304099552134</v>
       </c>
       <c r="R6">
-        <v>8.676403559755217</v>
+        <v>99.65736895969202</v>
       </c>
       <c r="S6">
-        <v>0.002663215259364115</v>
+        <v>0.002780933685339325</v>
       </c>
       <c r="T6">
-        <v>0.002663215259364115</v>
+        <v>0.002896407156295496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H7">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I7">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J7">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>52.42273090020797</v>
+        <v>53.054081112733</v>
       </c>
       <c r="R7">
-        <v>52.42273090020797</v>
+        <v>318.324486676398</v>
       </c>
       <c r="S7">
-        <v>0.01609111608392169</v>
+        <v>0.01332424230803434</v>
       </c>
       <c r="T7">
-        <v>0.01609111608392169</v>
+        <v>0.009251672313429481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H8">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I8">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J8">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>7.228266334752145</v>
+        <v>10.09335767134267</v>
       </c>
       <c r="R8">
-        <v>7.228266334752145</v>
+        <v>60.560146028056</v>
       </c>
       <c r="S8">
-        <v>0.002218710675325357</v>
+        <v>0.002534891576556778</v>
       </c>
       <c r="T8">
-        <v>0.002218710675325357</v>
+        <v>0.001760099049102005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H9">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I9">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J9">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>519.6538491398569</v>
+        <v>698.3445396733443</v>
       </c>
       <c r="R9">
-        <v>519.6538491398569</v>
+        <v>6285.100857060099</v>
       </c>
       <c r="S9">
-        <v>0.1595073409258996</v>
+        <v>0.1753854117523705</v>
       </c>
       <c r="T9">
-        <v>0.1595073409258996</v>
+        <v>0.1826679882326695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H10">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I10">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J10">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>727.9514635618248</v>
+        <v>931.6014552656999</v>
       </c>
       <c r="R10">
-        <v>727.9514635618248</v>
+        <v>8384.413097391298</v>
       </c>
       <c r="S10">
-        <v>0.2234441301032553</v>
+        <v>0.2339666103744562</v>
       </c>
       <c r="T10">
-        <v>0.2234441301032553</v>
+        <v>0.243681670007204</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H11">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I11">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J11">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>552.105524715176</v>
+        <v>717.8928267784848</v>
       </c>
       <c r="R11">
-        <v>552.105524715176</v>
+        <v>6461.035441006365</v>
       </c>
       <c r="S11">
-        <v>0.1694683572604789</v>
+        <v>0.180294857145317</v>
       </c>
       <c r="T11">
-        <v>0.1694683572604789</v>
+        <v>0.1877812898710856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H12">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I12">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J12">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>19.59391915078229</v>
+        <v>31.2627773879809</v>
       </c>
       <c r="R12">
-        <v>19.59391915078229</v>
+        <v>281.364996491828</v>
       </c>
       <c r="S12">
-        <v>0.006014338096853387</v>
+        <v>0.007851475558580951</v>
       </c>
       <c r="T12">
-        <v>0.006014338096853387</v>
+        <v>0.008177494528273231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H13">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I13">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J13">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>118.3862350163517</v>
+        <v>149.7888365104137</v>
       </c>
       <c r="R13">
-        <v>118.3862350163517</v>
+        <v>898.733019062482</v>
       </c>
       <c r="S13">
-        <v>0.03633856187333789</v>
+        <v>0.03761864706434986</v>
       </c>
       <c r="T13">
-        <v>0.03633856187333789</v>
+        <v>0.02612046429867612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H14">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I14">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J14">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>0.8493629251504097</v>
+        <v>0.9881843758413332</v>
       </c>
       <c r="R14">
-        <v>0.8493629251504097</v>
+        <v>5.929106255048</v>
       </c>
       <c r="S14">
-        <v>0.0002607112828973263</v>
+        <v>0.000248177101413666</v>
       </c>
       <c r="T14">
-        <v>0.0002607112828973263</v>
+        <v>0.000172321484771521</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H15">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I15">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J15">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>61.06232019274828</v>
+        <v>68.3710203809222</v>
       </c>
       <c r="R15">
-        <v>61.06232019274828</v>
+        <v>615.3391834282999</v>
       </c>
       <c r="S15">
-        <v>0.01874303123287326</v>
+        <v>0.01717100783382192</v>
       </c>
       <c r="T15">
-        <v>0.01874303123287326</v>
+        <v>0.01788400429426973</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H16">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I16">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J16">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>85.53848956640506</v>
+        <v>91.20790450321489</v>
       </c>
       <c r="R16">
-        <v>85.53848956640506</v>
+        <v>820.871140528934</v>
       </c>
       <c r="S16">
-        <v>0.02625597220176272</v>
+        <v>0.02290636638162837</v>
       </c>
       <c r="T16">
-        <v>0.02625597220176272</v>
+        <v>0.02385751370564577</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H17">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I17">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J17">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>64.87557897655461</v>
+        <v>70.28488418331244</v>
       </c>
       <c r="R17">
-        <v>64.87557897655461</v>
+        <v>632.563957649812</v>
       </c>
       <c r="S17">
-        <v>0.01991350802213222</v>
+        <v>0.01765166426048658</v>
       </c>
       <c r="T17">
-        <v>0.01991350802213222</v>
+        <v>0.01838461914936329</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H18">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I18">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J18">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>2.302398350356266</v>
+        <v>3.060764233880445</v>
       </c>
       <c r="R18">
-        <v>2.302398350356266</v>
+        <v>27.54687810492401</v>
       </c>
       <c r="S18">
-        <v>0.0007067193656419282</v>
+        <v>0.0007686941974045492</v>
       </c>
       <c r="T18">
-        <v>0.0007067193656419282</v>
+        <v>0.0008006128970650699</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H19">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I19">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J19">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>13.91106445367031</v>
+        <v>14.66498986113433</v>
       </c>
       <c r="R19">
-        <v>13.91106445367031</v>
+        <v>87.989939166806</v>
       </c>
       <c r="S19">
-        <v>0.004269990310139252</v>
+        <v>0.003683031997848035</v>
       </c>
       <c r="T19">
-        <v>0.004269990310139252</v>
+        <v>0.002557309029378672</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.453418766757619</v>
+        <v>0.1271686666666667</v>
       </c>
       <c r="H20">
-        <v>0.453418766757619</v>
+        <v>0.381506</v>
       </c>
       <c r="I20">
-        <v>0.06850423348933475</v>
+        <v>0.01622087664997523</v>
       </c>
       <c r="J20">
-        <v>0.06850423348933475</v>
+        <v>0.0165398013763673</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>0.8294370947800938</v>
+        <v>0.2567593877586667</v>
       </c>
       <c r="R20">
-        <v>0.8294370947800938</v>
+        <v>1.540556326552</v>
       </c>
       <c r="S20">
-        <v>0.0002545950649122763</v>
+        <v>6.448371596691267E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002545950649122763</v>
+        <v>4.477419397562333E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.453418766757619</v>
+        <v>0.1271686666666667</v>
       </c>
       <c r="H21">
-        <v>0.453418766757619</v>
+        <v>0.381506</v>
       </c>
       <c r="I21">
-        <v>0.06850423348933475</v>
+        <v>0.01622087664997523</v>
       </c>
       <c r="J21">
-        <v>0.06850423348933475</v>
+        <v>0.0165398013763673</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>59.62981425429664</v>
+        <v>17.76480357574444</v>
       </c>
       <c r="R21">
-        <v>59.62981425429664</v>
+        <v>159.8832321817</v>
       </c>
       <c r="S21">
-        <v>0.01830332465996671</v>
+        <v>0.004461533258768384</v>
       </c>
       <c r="T21">
-        <v>0.01830332465996671</v>
+        <v>0.004646790726032843</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.453418766757619</v>
+        <v>0.1271686666666667</v>
       </c>
       <c r="H22">
-        <v>0.453418766757619</v>
+        <v>0.381506</v>
       </c>
       <c r="I22">
-        <v>0.06850423348933475</v>
+        <v>0.01622087664997523</v>
       </c>
       <c r="J22">
-        <v>0.06850423348933475</v>
+        <v>0.0165398013763673</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>83.53177914526042</v>
+        <v>23.69849826765178</v>
       </c>
       <c r="R22">
-        <v>83.53177914526042</v>
+        <v>213.286484408866</v>
       </c>
       <c r="S22">
-        <v>0.025640014013798</v>
+        <v>0.005951748228072521</v>
       </c>
       <c r="T22">
-        <v>0.025640014013798</v>
+        <v>0.006198884299592655</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.453418766757619</v>
+        <v>0.1271686666666667</v>
       </c>
       <c r="H23">
-        <v>0.453418766757619</v>
+        <v>0.381506</v>
       </c>
       <c r="I23">
-        <v>0.06850423348933475</v>
+        <v>0.01622087664997523</v>
       </c>
       <c r="J23">
-        <v>0.06850423348933475</v>
+        <v>0.0165398013763673</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>63.35361499203769</v>
+        <v>18.26208172562089</v>
       </c>
       <c r="R23">
-        <v>63.35361499203769</v>
+        <v>164.358735530588</v>
       </c>
       <c r="S23">
-        <v>0.01944634237223448</v>
+        <v>0.004586421946395746</v>
       </c>
       <c r="T23">
-        <v>0.01944634237223448</v>
+        <v>0.004776865200836475</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.453418766757619</v>
+        <v>0.1271686666666667</v>
       </c>
       <c r="H24">
-        <v>0.453418766757619</v>
+        <v>0.381506</v>
       </c>
       <c r="I24">
-        <v>0.06850423348933475</v>
+        <v>0.01622087664997523</v>
       </c>
       <c r="J24">
-        <v>0.06850423348933475</v>
+        <v>0.0165398013763673</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>2.248384691865145</v>
+        <v>0.7952766406528892</v>
       </c>
       <c r="R24">
-        <v>2.248384691865145</v>
+        <v>7.157489765876002</v>
       </c>
       <c r="S24">
-        <v>0.0006901399155832802</v>
+        <v>0.0001997293787722486</v>
       </c>
       <c r="T24">
-        <v>0.0006901399155832802</v>
+        <v>0.0002080227964615442</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1271686666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.381506</v>
+      </c>
+      <c r="I25">
+        <v>0.01622087664997523</v>
+      </c>
+      <c r="J25">
+        <v>0.0165398013763673</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.9633245</v>
+      </c>
+      <c r="N25">
+        <v>59.926649</v>
+      </c>
+      <c r="O25">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P25">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q25">
+        <v>3.810396025565667</v>
+      </c>
+      <c r="R25">
+        <v>22.862376153394</v>
+      </c>
+      <c r="S25">
+        <v>0.0009569601219994175</v>
+      </c>
+      <c r="T25">
+        <v>0.0006644641594681581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.453508</v>
+      </c>
+      <c r="H26">
+        <v>0.907016</v>
+      </c>
+      <c r="I26">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J26">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.019046</v>
+      </c>
+      <c r="N26">
+        <v>4.038092</v>
+      </c>
+      <c r="O26">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P26">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q26">
+        <v>0.915653513368</v>
+      </c>
+      <c r="R26">
+        <v>3.662614053472</v>
+      </c>
+      <c r="S26">
+        <v>0.0002299613719893472</v>
+      </c>
+      <c r="T26">
+        <v>0.0001064489426719212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.453508</v>
+      </c>
+      <c r="H27">
+        <v>0.907016</v>
+      </c>
+      <c r="I27">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J27">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N27">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P27">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q27">
+        <v>63.35271691686665</v>
+      </c>
+      <c r="R27">
+        <v>380.1163015012</v>
+      </c>
+      <c r="S27">
+        <v>0.01591068836493423</v>
+      </c>
+      <c r="T27">
+        <v>0.01104756815663032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.453508</v>
+      </c>
+      <c r="H28">
+        <v>0.907016</v>
+      </c>
+      <c r="I28">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J28">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N28">
+        <v>559.064561</v>
+      </c>
+      <c r="O28">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P28">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q28">
+        <v>84.51341697666268</v>
+      </c>
+      <c r="R28">
+        <v>507.080501859976</v>
+      </c>
+      <c r="S28">
+        <v>0.02122508245283204</v>
+      </c>
+      <c r="T28">
+        <v>0.01473761157591055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.453508</v>
+      </c>
+      <c r="H29">
+        <v>0.907016</v>
+      </c>
+      <c r="I29">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J29">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N29">
+        <v>430.815598</v>
+      </c>
+      <c r="O29">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P29">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q29">
+        <v>65.12610673926133</v>
+      </c>
+      <c r="R29">
+        <v>390.756640435568</v>
+      </c>
+      <c r="S29">
+        <v>0.01635606551980343</v>
+      </c>
+      <c r="T29">
+        <v>0.01135681527158654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.453418766757619</v>
-      </c>
-      <c r="H25">
-        <v>0.453418766757619</v>
-      </c>
-      <c r="I25">
-        <v>0.06850423348933475</v>
-      </c>
-      <c r="J25">
-        <v>0.06850423348933475</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="N25">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="O25">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="P25">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="Q25">
-        <v>13.58471454791561</v>
-      </c>
-      <c r="R25">
-        <v>13.58471454791561</v>
-      </c>
-      <c r="S25">
-        <v>0.004169817462840011</v>
-      </c>
-      <c r="T25">
-        <v>0.004169817462840011</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.453508</v>
+      </c>
+      <c r="H30">
+        <v>0.907016</v>
+      </c>
+      <c r="I30">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J30">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N30">
+        <v>18.761146</v>
+      </c>
+      <c r="O30">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P30">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q30">
+        <v>2.836109933389334</v>
+      </c>
+      <c r="R30">
+        <v>17.01665960033601</v>
+      </c>
+      <c r="S30">
+        <v>0.0007122734985157107</v>
+      </c>
+      <c r="T30">
+        <v>0.0004945662840305631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.453508</v>
+      </c>
+      <c r="H31">
+        <v>0.907016</v>
+      </c>
+      <c r="I31">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J31">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>29.9633245</v>
+      </c>
+      <c r="N31">
+        <v>59.926649</v>
+      </c>
+      <c r="O31">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P31">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q31">
+        <v>13.588607367346</v>
+      </c>
+      <c r="R31">
+        <v>54.354429469384</v>
+      </c>
+      <c r="S31">
+        <v>0.003412704421485207</v>
+      </c>
+      <c r="T31">
+        <v>0.001579738258544219</v>
       </c>
     </row>
   </sheetData>
